--- a/outputs/Index.xlsx
+++ b/outputs/Index.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,11 +442,6 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Test</t>
         </is>
       </c>
@@ -458,10 +453,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.538</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.5861</v>
+        <v>32.6709</v>
       </c>
     </row>
     <row r="5">
@@ -471,10 +463,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.5269</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.1906</v>
+        <v>26.5925</v>
       </c>
     </row>
     <row r="6">
@@ -484,10 +473,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9243</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6816</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="7">
@@ -497,10 +483,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9644</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8815</v>
+        <v>0.8593</v>
       </c>
     </row>
     <row r="8">
@@ -510,10 +493,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1343</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.0332</v>
+        <v>-0.3488</v>
       </c>
     </row>
     <row r="9">
@@ -523,10 +503,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,11 +533,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>Test</t>
         </is>
       </c>
@@ -570,10 +542,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.8771</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.882</v>
+        <v>28.3061</v>
       </c>
     </row>
     <row r="3">
@@ -581,10 +550,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.1386</v>
-      </c>
-      <c r="C3" t="n">
-        <v>29.9211</v>
+        <v>27.6718</v>
       </c>
     </row>
     <row r="4">
@@ -592,10 +558,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.9188</v>
-      </c>
-      <c r="C4" t="n">
-        <v>48.9587</v>
+        <v>56.8283</v>
       </c>
     </row>
     <row r="5">
@@ -603,10 +566,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.5856</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20.8971</v>
+        <v>36.9145</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +574,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.5506</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31.6443</v>
+        <v>37.7914</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,11 +604,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>Test</t>
         </is>
       </c>
@@ -661,10 +613,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.2495</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.3444</v>
+        <v>22.8941</v>
       </c>
     </row>
     <row r="3">
@@ -672,10 +621,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.219099999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18.9801</v>
+        <v>19.1381</v>
       </c>
     </row>
     <row r="4">
@@ -683,10 +629,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.072</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31.8607</v>
+        <v>46.5609</v>
       </c>
     </row>
     <row r="5">
@@ -694,10 +637,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.6294</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13.8191</v>
+        <v>34.0282</v>
       </c>
     </row>
     <row r="6">
@@ -705,10 +645,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.0098</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17.6188</v>
+        <v>30.3096</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,11 +675,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>Test</t>
         </is>
       </c>
@@ -752,10 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9298</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8522</v>
+        <v>0.7005</v>
       </c>
     </row>
     <row r="3">
@@ -763,10 +692,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8988</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4463</v>
+        <v>0.5264</v>
       </c>
     </row>
     <row r="4">
@@ -774,10 +700,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8285</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1736</v>
+        <v>-0.1134</v>
       </c>
     </row>
     <row r="5">
@@ -785,10 +708,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9473</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7504999999999999</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="6">
@@ -796,10 +716,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9212</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6772</v>
+        <v>0.5396</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,11 +746,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>Test</t>
         </is>
       </c>
@@ -843,10 +755,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9695</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9235</v>
+        <v>0.8923</v>
       </c>
     </row>
     <row r="3">
@@ -854,10 +763,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9527</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8713</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +771,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9105</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4635</v>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="5">
@@ -876,10 +779,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9741</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8915</v>
+        <v>0.7789</v>
       </c>
     </row>
     <row r="6">
@@ -887,10 +787,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9612000000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.904</v>
+        <v>0.8947000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,11 +817,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>Test</t>
         </is>
       </c>
@@ -934,10 +826,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.183</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.2187</v>
+        <v>-0.3292</v>
       </c>
     </row>
     <row r="3">
@@ -945,10 +834,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0877</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3439</v>
+        <v>-0.2832</v>
       </c>
     </row>
     <row r="4">
@@ -956,10 +842,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2815</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3698</v>
+        <v>-0.3976</v>
       </c>
     </row>
     <row r="5">
@@ -967,10 +850,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1379</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0687</v>
+        <v>-0.3416</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +858,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1286</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3266</v>
+        <v>-0.4411</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,11 +888,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>Test</t>
         </is>
       </c>
@@ -1025,10 +897,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>145</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1036,10 +905,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1047,10 +913,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>109</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1058,9 +921,6 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
-      </c>
-      <c r="C5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1069,10 +929,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
